--- a/reverseprimer-v3_12.xlsx
+++ b/reverseprimer-v3_12.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="reverseprimer-v3_12" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>R1057-GTCAGATCCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCAGATCCTGTCTCGTGGGCTCGG</t>
+    <t>R1057-TCACTTCAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCACTTCAAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>R1058-AGCACATGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGCACATGTAGTCTCGTGGGCTCGG</t>
+    <t>R1058-CAGAAGGTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGAAGGTAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>R1059-AACACAGTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACACAGTGAGTCTCGTGGGCTCGG</t>
+    <t>R1059-AGACACCACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGACACCACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>R1060-CATCGACTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATCGACTACGTCTCGTGGGCTCGG</t>
+    <t>R1060-TACGTGAGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACGTGAGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>R1061-CAGAGTAGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGAGTAGTTGTCTCGTGGGCTCGG</t>
+    <t>R1061-AGGTAGTTCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGTAGTTCGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>R1062-TGACTGCATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGACTGCATGGTCTCGTGGGCTCGG</t>
+    <t>R1062-GAACTCGTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAACTCGTACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>R1063-TACATCGTCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACATCGTCCGTCTCGTGGGCTCGG</t>
+    <t>R1063-GTCTACGACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCTACGACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>R1064-CAACTACACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAACTACACGGTCTCGTGGGCTCGG</t>
+    <t>R1064-CTTCGTGTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTTCGTGTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>R1065-CATGAGACCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATGAGACCTGTCTCGTGGGCTCGG</t>
+    <t>R1065-TTGACGACAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGACGACAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>R1066-TCTTCCTTGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTTCCTTGCGTCTCGTGGGCTCGG</t>
+    <t>R1066-CTACGTAGGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTACGTAGGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>R1067-GCTTCAGAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTTCAGAGAGTCTCGTGGGCTCGG</t>
+    <t>R1067-TGGTAGTAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGGTAGTAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>R1068-TCCTCTACGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCTCTACGTGTCTCGTGGGCTCGG</t>
+    <t>R1068-GCTAGACACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTAGACACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>R1069-CGTCTTCTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGTCTTCTGAGTCTCGTGGGCTCGG</t>
+    <t>R1069-TAGTGTCAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGTGTCAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>R1070-ACACAACCTA</t>
+    <t>R1070-AACAGAGCTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACAGAGCTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>R1071-AACGTGACAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACGTGACATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>R1072-AAGAAGACGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGAAGACGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>R1073-ACTCACTGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTCACTGTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>R1074-AGAACAGCTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAACAGCTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>R1075-GTCCATGATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCCATGATCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>R1076-TTCACTCATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCACTCATGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>R1077-GAGAGTTGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGAGTTGCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>R1078-TACAGCTAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACAGCTAGGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>R1079-GTAGAAGTCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTAGAAGTCGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>R1080-GAGTCTTCTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGTCTTCTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>R1081-TCAAGAGGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAAGAGGTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>R1082-ACAGAGAGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAGAGAGTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>R1083-GAAGGTTGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAAGGTTGACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>R1084-TGTCTCATGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTCTCATGGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>R1085-CAAGCTCATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAAGCTCATGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>R1086-TCGTCGATGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCGTCGATGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>R1087-GATGTGCTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATGTGCTGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>R1088-CTTGGACGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTTGGACGTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>R1089-TACAGATCTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACAGATCTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>R1090-AACTCCACAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACTCCACAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>R1091-TGGTGGAGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGGTGGAGAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>R1092-TTGTCGTACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGTCGTACGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>R1093-AAGACATGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGACATGCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>R1094-TCACCAGATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCACCAGATGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>R1095-AACAACAGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACAACAGGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>R1096-CTACAAGTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTACAAGTAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>R1097-AGACTGTCTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGACTGTCTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>R1098-AGTCAGGATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTCAGGATCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>R1099-TAGGTCCTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGGTCCTTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>R1100-GAGTACCTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGTACCTGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>R1101-TTGACACCAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGACACCACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>R1102-AGCTTCCTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGCTTCCTTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>R1103-CTGAAGGACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGAAGGACAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>R1104-ACCAAGTGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCAAGTGAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>R1105-TCTGCTAGCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTGCTAGCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>R1106-GAGTAGAGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGTAGAGTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>R1107-GTTGTGGTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTGTGGTTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>R1108-CATGTACGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATGTACGTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>R1109-CGAAGTTGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGAAGTTGCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>R1110-TGTCAGTACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTCAGTACCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>R1111-TCTCTTGAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTCTTGAGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>R1112-TCAGTAGCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAGTAGCTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>R1113-TCGAACCTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCGAACCTCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>R1114-TACTAGTCGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACTAGTCGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>R1115-CAGTACGAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGTACGAACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>R1116-CTAGCTAGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTAGCTAGACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>R1117-TGTACGATCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTACGATCCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>R1118-ACACAACCTA</t>
   </si>
   <si>
     <t>CAAGCAGAAGACGGCATACGAGATACACAACCTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>R1071-CTTGCACTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTTGCACTGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>R1072-AACACAGGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACACAGGTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>R1073-ATCCTGTCTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCCTGTCTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>R1074-AAGATGGATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGATGGATCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>R1075-GGTTCTCAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGTTCTCAAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>R1076-ATCGAGGTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCGAGGTTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
-    <t>R1077-TCTCTTGGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTCTTGGTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>R1078-GTCGAAGAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCGAAGAGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B11</t>
-  </si>
-  <si>
-    <t>R1079-GAGAGTCAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGAGTCAGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B12</t>
-  </si>
-  <si>
-    <t>R1080-ACTGATCGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTGATCGTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>R1081-GACAGGAGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACAGGAGTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>R1082-TGTCGTGTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTCGTGTCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>R1083-TCCAGAACTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCAGAACTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>R1084-ACTGAGTCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTGAGTCTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>R1085-GCATGACAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCATGACAACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>R1086-ACCATCGAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCATCGAGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>R1087-TCATGATGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCATGATGGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>R1088-TACCAGAGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACCAGAGTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>R1089-GTACCAACTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTACCAACTTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>R1090-GCAGATGACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCAGATGACAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>R1091-GAACCTGCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACCTGCAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>R1092-TACCATGCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACCATGCTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>R1093-GTACAGGTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTACAGGTACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>R1094-GCAAGAGATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCAAGAGATGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>R1095-TGAAGTCGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAAGTCGTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>R1096-AGGTTCGACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGTTCGACTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>R1097-GACAAGTCGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACAAGTCGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>R1098-TGAAGATGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAAGATGAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>R1099-AGACACAGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGACACAGTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>R1100-ACAACCACGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAACCACGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>R1101-AGTAGATGCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTAGATGCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>R1102-GTGATCCTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGATCCTTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>R1103-TACTACCTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACTACCTTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D12</t>
-  </si>
-  <si>
-    <t>R1104-TCAGTGAGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAGTGAGGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>R1105-ACTTGCACTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTTGCACTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>R1106-GAACAGATGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACAGATGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>R1107-GAGGTACAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGGTACAGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>R1108-AGTGGTGAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTGGTGAAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>R1109-TCAAGAGTCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAAGAGTCCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>R1110-TCAGGTGAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAGGTGAAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>R1111-TTCCAACATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCCAACATCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E8</t>
-  </si>
-  <si>
-    <t>R1112-CTCAGATGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCAGATGTTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E9</t>
-  </si>
-  <si>
-    <t>R1113-CTGACACGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGACACGAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>R1114-CATCTAGTGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATCTAGTGCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E11</t>
-  </si>
-  <si>
-    <t>R1115-GACTGTCTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACTGTCTTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E12</t>
-  </si>
-  <si>
-    <t>R1116-AACTGGTCGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACTGGTCGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>R1117-GATGTAGAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATGTAGAGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>R1118-CAAGCTAGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAAGCTAGCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
     <t>F3</t>
   </si>
   <si>
-    <t>R1119-ACTGCATGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTGCATGGAGTCTCGTGGGCTCGG</t>
+    <t>R1119-GCTGTCACTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTGTCACTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F4</t>
   </si>
   <si>
-    <t>R1120-AGAGCTGTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAGCTGTCAGTCTCGTGGGCTCGG</t>
+    <t>R1120-TCACAAGAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCACAAGAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F5</t>
   </si>
   <si>
-    <t>R1121-ACACCAACTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACACCAACTCGTCTCGTGGGCTCGG</t>
+    <t>R1121-GGATGATCAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGATGATCACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F6</t>
   </si>
   <si>
-    <t>R1122-CATCGTACTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATCGTACTTGTCTCGTGGGCTCGG</t>
+    <t>R1122-TCAACTTCTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAACTTCTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F7</t>
   </si>
   <si>
-    <t>R1123-CATCGAGTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATCGAGTCAGTCTCGTGGGCTCGG</t>
+    <t>R1123-TACGTTGCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACGTTGCAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F8</t>
   </si>
   <si>
-    <t>R1124-ACTGTTGTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTGTTGTCAGTCTCGTGGGCTCGG</t>
+    <t>R1124-CAACGTTCAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAACGTTCACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F9</t>
   </si>
   <si>
-    <t>R1125-TAGAGTGCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGAGTGCTAGTCTCGTGGGCTCGG</t>
+    <t>R1125-ACCTTGGTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCTTGGTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F10</t>
   </si>
   <si>
-    <t>R1126-CTGTGTTCAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGTGTTCAGGTCTCGTGGGCTCGG</t>
+    <t>R1126-ATGAGGACCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGAGGACCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F11</t>
   </si>
   <si>
-    <t>R1127-TTGTCAAGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGTCAAGGTGTCTCGTGGGCTCGG</t>
+    <t>R1127-AGTGAACTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTGAACTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F12</t>
   </si>
   <si>
-    <t>R1128-CGTTGACGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGTTGACGTAGTCTCGTGGGCTCGG</t>
+    <t>R1128-TACTGAAGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACTGAAGTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G1</t>
   </si>
   <si>
-    <t>R1129-ACAAGAAGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAAGAAGTGGTCTCGTGGGCTCGG</t>
+    <t>R1129-GATCTCAGGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATCTCAGGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G2</t>
   </si>
   <si>
-    <t>R1130-TGACGAAGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGACGAAGTCGTCTCGTGGGCTCGG</t>
+    <t>R1130-TTGCATCACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGCATCACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G3</t>
   </si>
   <si>
-    <t>R1131-GAGAGACGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGAGACGATGTCTCGTGGGCTCGG</t>
+    <t>R1131-CATCCACTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATCCACTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G4</t>
   </si>
   <si>
-    <t>R1132-GAACATGGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACATGGACGTCTCGTGGGCTCGG</t>
+    <t>R1132-ATGATGGTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGATGGTTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G5</t>
   </si>
   <si>
-    <t>R1133-GAAGCACTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAAGCACTAGGTCTCGTGGGCTCGG</t>
+    <t>R1133-AACAGTTGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACAGTTGTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G6</t>
   </si>
   <si>
-    <t>R1134-GCTCGTTCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTCGTTCTTGTCTCGTGGGCTCGG</t>
+    <t>R1134-TCTTGTCCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTTGTCCTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G7</t>
   </si>
   <si>
-    <t>R1135-GAAGCTTCAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAAGCTTCAGGTCTCGTGGGCTCGG</t>
+    <t>R1135-TCATCTGGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCATCTGGTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G8</t>
   </si>
   <si>
-    <t>R1136-TCTTGTCCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTTGTCCTTGTCTCGTGGGCTCGG</t>
+    <t>R1136-ACTGAACTCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTGAACTCGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G9</t>
   </si>
   <si>
-    <t>R1137-TGTCTGTGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTCTGTGACGTCTCGTGGGCTCGG</t>
+    <t>R1137-CGAAGTCTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGAAGTCTAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G10</t>
   </si>
   <si>
-    <t>R1138-AAGACGTTGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGACGTTGGGTCTCGTGGGCTCGG</t>
+    <t>R1138-CTTGCTTGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTTGCTTGCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G11</t>
   </si>
   <si>
-    <t>R1139-TCTACACTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTACACTGAGTCTCGTGGGCTCGG</t>
+    <t>R1139-TACCTTCACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACCTTCACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G12</t>
   </si>
   <si>
-    <t>R1140-TACCTGTGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACCTGTGATGTCTCGTGGGCTCGG</t>
+    <t>R1140-ATGTCTAGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGTCTAGACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>R1141-GGTGAAGGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGTGAAGGTTGTCTCGTGGGCTCGG</t>
+    <t>R1141-GACGTGTCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACGTGTCTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>R1142-TTCCTCAGCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCCTCAGCAGTCTCGTGGGCTCGG</t>
+    <t>R1142-TACTACTCAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACTACTCAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>R1143-AGACTCACAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGACTCACATGTCTCGTGGGCTCGG</t>
+    <t>R1143-TGTAGTCCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTAGTCCATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>R1144-ATCTTGCACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCTTGCACGGTCTCGTGGGCTCGG</t>
+    <t>R1144-CTCCATCTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCCATCTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>R1145-CAAGGATCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAAGGATCTTGTCTCGTGGGCTCGG</t>
+    <t>R1145-CCTACAGATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCTACAGATCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>R1146-CAGTCGTTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGTCGTTGTGTCTCGTGGGCTCGG</t>
+    <t>R1146-TGTCGTGCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTCGTGCTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>R1147-ACCACTCACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCACTCACAGTCTCGTGGGCTCGG</t>
+    <t>R1147-CACGACTGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCACGACTGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>R1148-ATCTGAGATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCTGAGATGGTCTCGTGGGCTCGG</t>
+    <t>R1148-AGACAGGTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGACAGGTAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>R1149-GATGACCAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATGACCAGAGTCTCGTGGGCTCGG</t>
+    <t>R1149-AGCATGCTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGCATGCTAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>R1150-TCATCTCGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCATCTCGAAGTCTCGTGGGCTCGG</t>
+    <t>R1150-CCTGTACAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCTGTACAACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>R1151-TCCAACTCGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCAACTCGTGTCTCGTGGGCTCGG</t>
+    <t>R1151-GTCATGACAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCATGACATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>R1152-AGTAGGATGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTAGGATGGGTCTCGTGGGCTCGG</t>
+    <t>R1152-AGTTGCATCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTTGCATCGGTCTCGTGGGCTCGG</t>
   </si>
 </sst>
 </file>
